--- a/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.88</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.07</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9448</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,160 +550,220 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.88</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.07</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9448</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1101</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>166024</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>99.15</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>6.79</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2926</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>001891</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>93.99</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>7.03</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-    </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -698,20 +778,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>93.99</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>7.03</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004314</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.34</t>
+          <t>46.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3083</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004315</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.34</t>
+          <t>17.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -818,25 +938,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001972</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66.30</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8271</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004814</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合A</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004815</t>
+          <t>000932</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合C</t>
+          <t>前海开源睿远稳健增利混合 - A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005825</t>
+          <t>001103</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信智能驱动股票</t>
+          <t>前海开源工业革命4.0灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>82.27</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000932</t>
+          <t>001753</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源睿远稳健增利混合 - A</t>
+          <t>红土创新新兴产业灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21.69</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000933</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源睿远稳健增利混合 - C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.69</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001103</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源工业革命4.0灵活配置混合</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>30.26</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001242</t>
+          <t>005825</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数A</t>
+          <t>申万菱信智能驱动股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001243</t>
+          <t>004756</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数I</t>
+          <t>国寿安保稳吉混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001753</t>
+          <t>004814</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>红土创新新兴产业灵活配置混合</t>
+          <t>中欧红利优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>001242</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>博时中证淘金大数据100指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>001243</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>博时中证淘金大数据100指数I</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>519677</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>004314</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>519677</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>000933</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>前海开源睿远稳健增利混合 - C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>004315</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>004815</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧红利优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>004756</t>
+          <t>004757</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国寿安保稳吉混合A</t>
+          <t>国寿安保稳吉混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>23.68</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>0.77</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>004757</t>
+          <t>001972</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国寿安保稳吉混合C</t>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23.68</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,1086 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1573</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6726</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1861</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8346</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6867</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5863</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>58.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2816,4 +2817,1276 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9834</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0433</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3217</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0457</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8693</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7481</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5433</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3872</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4089,4 +4090,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4098,7 +4099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4109,17 +4110,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4129,14 +4150,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.16</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1057</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4145,14 +4188,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.91</v>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7886</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4161,14 +4226,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.86</v>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6154</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4177,13 +4264,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3854</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4649,7 +4650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4660,17 +4661,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4680,14 +4701,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.56</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5445</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4696,14 +4739,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.16</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2379</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4712,14 +4777,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.91</v>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2379</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4728,14 +4815,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.86</v>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2219</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4744,13 +4853,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0592</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6044</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4800</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5314,7 +5315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5325,17 +5326,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5345,14 +5366,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.31</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4408</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5361,14 +5404,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.56</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6687</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5377,14 +5442,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.16</v>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5393,14 +5480,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.91</v>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0959</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5409,14 +5518,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>23</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.86</v>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9085</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -5425,13 +5556,563 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8195</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5537</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4717</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3689</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3673</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>15.53</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>17.31</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>5.56</v>
+        <v>17.31</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>14.16</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>10.91</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>6.86</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.19</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166019</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合A</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>134.98</t>
+          <t>26.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.4408</t>
+          <t>2.0311</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>42.56</t>
+          <t>19.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.6687</t>
+          <t>1.4875</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.17</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.2116</t>
+          <t>0.6241</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004235</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>33.31</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0959</t>
+          <t>0.2773</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9085</t>
+          <t>0.1568</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013220</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧新兴价值一年持有混合A</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.39</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8195</t>
+          <t>0.1371</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001887</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合E</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16.83</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5537</t>
+          <t>0.0426</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -922,340 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19.02</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>59.92</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4717</t>
+          <t>0.0328</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>013221</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧新兴价值一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>18.63</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3689</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>95.93</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3673</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2745</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.35</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2138</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>8.35</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0476</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>710301</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>20.42</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>710302</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20.42</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1330,26 +1043,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>156.17</t>
+          <t>134.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>94.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.5445</t>
+          <t>4.4408</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1368,26 +1081,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>42.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.2379</t>
+          <t>3.6687</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1396,36 +1109,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>24.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.2379</t>
+          <t>2.2116</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1434,36 +1147,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004235</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值智选回报混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.67</t>
+          <t>33.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>94.78</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.2219</t>
+          <t>1.0959</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1472,36 +1185,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004235</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合C</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>36.40</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0592</t>
+          <t>0.9085</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1510,36 +1223,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>013220</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧新兴价值一年持有混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>41.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8169</t>
+          <t>0.8195</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1558,26 +1271,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.77</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>94.78</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6044</t>
+          <t>0.5537</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1596,26 +1309,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23.30</t>
+          <t>19.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>59.08</t>
+          <t>59.92</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4800</t>
+          <t>0.4717</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1624,36 +1337,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>013221</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧新兴价值一年持有混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.71</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3073</t>
+          <t>0.3689</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1662,32 +1375,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>95.93</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2658</t>
+          <t>0.3673</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1700,32 +1413,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2156</t>
+          <t>0.2745</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1748,22 +1461,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2156</t>
+          <t>0.2138</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1776,36 +1489,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004756</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国寿安保稳吉混合A</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25.19</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0486</t>
+          <t>0.0612</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1814,32 +1527,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>710301</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富安达增强收益债券A</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>20.20</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0285</t>
+          <t>0.0476</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1852,36 +1565,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004757</t>
+          <t>710301</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国寿安保稳吉混合C</t>
+          <t>富安达增强收益债券A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25.19</t>
+          <t>20.42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.0179</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1900,22 +1613,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20.20</t>
+          <t>20.42</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0121</t>
+          <t>0.0107</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1928,6 +1641,670 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5445</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2379</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2379</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2219</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0592</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6044</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4800</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2477,7 +2854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3749,7 +4126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4831,7 +5208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5761,7 +6138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002048-宁波华翔.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>4.79</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>15.53</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>17.31</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>5.56</v>
+        <v>17.31</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>14.16</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>10.91</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>6.86</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.19</v>
       </c>
     </row>
@@ -616,7 +633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -643,7 +660,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -673,32 +690,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.62</t>
+          <t>32.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0311</t>
+          <t>1.9448</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -711,32 +728,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>32.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4875</t>
+          <t>1.9448</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -749,32 +766,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>17.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6241</t>
+          <t>1.1101</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -787,32 +804,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2773</t>
+          <t>0.7041</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -825,36 +842,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>99.15</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1568</t>
+          <t>0.2926</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -863,32 +880,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1371</t>
+          <t>0.0907</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -911,26 +928,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.70</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0426</t>
+          <t>0.0499</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +956,738 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0328</t>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3928</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5311</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1131</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>38.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>38.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +1701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,36 +1752,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166019</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合A</t>
+          <t>中欧价值发现混合 -A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>134.98</t>
+          <t>26.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.4408</t>
+          <t>2.0311</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1071,36 +1790,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>42.56</t>
+          <t>19.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.6687</t>
+          <t>1.4875</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1109,36 +1828,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.17</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.2116</t>
+          <t>0.6241</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1147,36 +1866,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004235</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>33.31</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0959</t>
+          <t>0.2773</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1185,36 +1904,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9085</t>
+          <t>0.1568</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1223,36 +1942,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013220</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧新兴价值一年持有混合A</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>41.39</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8195</t>
+          <t>0.1371</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1261,36 +1980,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001887</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合E</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16.83</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5537</t>
+          <t>0.0426</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1299,340 +2018,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19.02</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>59.92</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4717</t>
+          <t>0.0328</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>013221</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧新兴价值一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>18.63</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3689</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>95.93</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3673</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9.15</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2745</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.35</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2138</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8.62</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>8.35</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0476</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>710301</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>20.42</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>710302</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20.42</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1707,26 +2122,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>156.17</t>
+          <t>134.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>94.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.5445</t>
+          <t>4.4408</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1745,26 +2160,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>42.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.2379</t>
+          <t>3.6687</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1773,36 +2188,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>24.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.2379</t>
+          <t>2.2116</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1811,36 +2226,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>004235</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧价值智选回报混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.67</t>
+          <t>33.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>94.78</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.2219</t>
+          <t>1.0959</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1849,36 +2264,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004235</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合C</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>36.40</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0592</t>
+          <t>0.9085</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1887,36 +2302,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>013220</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧新兴价值一年持有混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>41.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8169</t>
+          <t>0.8195</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1935,26 +2350,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.77</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>94.78</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.6044</t>
+          <t>0.5537</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1973,26 +2388,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23.30</t>
+          <t>19.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>59.08</t>
+          <t>59.92</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4800</t>
+          <t>0.4717</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2001,36 +2416,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>013221</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧新兴价值一年持有混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.71</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3073</t>
+          <t>0.3689</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -2039,32 +2454,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>95.93</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2658</t>
+          <t>0.3673</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -2077,32 +2492,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2156</t>
+          <t>0.2745</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -2125,22 +2540,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2156</t>
+          <t>0.2138</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2153,36 +2568,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004756</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国寿安保稳吉混合A</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25.19</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0486</t>
+          <t>0.0612</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2191,32 +2606,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>710301</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富安达增强收益债券A</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>20.20</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0285</t>
+          <t>0.0476</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -2229,36 +2644,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004757</t>
+          <t>710301</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国寿安保稳吉混合C</t>
+          <t>富安达增强收益债券A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25.19</t>
+          <t>20.42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.0179</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2277,22 +2692,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20.20</t>
+          <t>20.42</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0121</t>
+          <t>0.0107</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2305,6 +2720,670 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5445</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2379</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2379</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2219</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0592</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8169</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6044</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4800</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3073</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2854,7 +3933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4126,7 +5205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5208,7 +6287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6136,364 +7215,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9448</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.9448</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.1101</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.88</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7041</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2926</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0907</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0499</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0499</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>